--- a/sims/s32/gs-radiances.xlsx
+++ b/sims/s32/gs-radiances.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="0" windowWidth="17540" windowHeight="14320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2800" yWindow="0" windowWidth="17640" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>mu</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>tau=0</t>
+  </si>
+  <si>
+    <t>tau0</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,14 +152,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -171,6 +183,10 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -185,6 +201,10 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,14 +541,16 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -561,51 +583,51 @@
       <c r="A2">
         <v>-1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>4.7680699999999999E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4.41912E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4.0646700000000001E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3.3709900000000001E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1.5857199999999998E-2</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>5.4297E-3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>0.9</v>
-      </c>
-      <c r="B3">
+        <v>-0.9</v>
+      </c>
+      <c r="B3" s="2">
         <v>6.4564399999999994E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>6.0374299999999999E-2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5.6013899999999998E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>4.7289900000000003E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2.3812099999999999E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>9.0108299999999992E-3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -613,25 +635,25 @@
       <c r="A4">
         <v>-0.8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>8.4587700000000002E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>7.9676300000000005E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>7.4442499999999995E-2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>6.3754000000000005E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>3.3828700000000003E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1.36919E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -639,25 +661,25 @@
       <c r="A5">
         <v>-0.7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.10835</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.102719</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>9.6567799999999995E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>8.3748799999999998E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>4.64918E-2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1.9884499999999999E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -665,25 +687,25 @@
       <c r="A6">
         <v>-0.6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.13650399999999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.13020399999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.123128</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.10806300000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>6.2604800000000002E-2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>2.8172099999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -691,25 +713,25 @@
       <c r="A7">
         <v>-0.5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.16967699999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.162852</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.154919</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>0.13761799999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>8.3292099999999994E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>3.9479199999999999E-2</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -717,25 +739,25 @@
       <c r="A8">
         <v>-0.4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.20823</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.20120099999999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.19262599999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.17335800000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.110124</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>5.5363099999999998E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -743,25 +765,25 @@
       <c r="A9">
         <v>-0.3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.25167699999999998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.24506500000000001</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.23630999999999999</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.215806</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.145144</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>7.86298E-2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -769,25 +791,25 @@
       <c r="A10">
         <v>-0.2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.29752299999999998</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.29240100000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.28424100000000002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>0.26379999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>0.19003500000000001</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.11455700000000001</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -795,25 +817,25 @@
       <c r="A11">
         <v>-0.1</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.34012599999999998</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.338476</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.331984</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0.312888</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.24121699999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.17069699999999999</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -821,25 +843,25 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.359379</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.37448500000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.37380000000000002</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.35934700000000003</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.28825800000000001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.22562299999999999</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>0.15151999999999999</v>
       </c>
     </row>
@@ -847,25 +869,25 @@
       <c r="A13">
         <v>0.1</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.15562000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.25142700000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>0.338864</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>0.33070300000000002</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>0.26985500000000001</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>0.203073</v>
       </c>
     </row>
@@ -873,25 +895,25 @@
       <c r="A14">
         <v>0.2</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
         <v>9.2437000000000005E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.16508</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>0.26188699999999998</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>0.33551700000000001</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.30155300000000002</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>0.24424199999999999</v>
       </c>
     </row>
@@ -899,25 +921,25 @@
       <c r="A15">
         <v>0.3</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
         <v>6.7072599999999996E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.124144</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0.21038299999999999</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.314805</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.30971300000000002</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>0.27030199999999999</v>
       </c>
     </row>
@@ -925,25 +947,25 @@
       <c r="A16">
         <v>0.4</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
         <v>5.3017000000000002E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>9.9893899999999994E-2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>0.17530399999999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.28818300000000002</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.30293900000000001</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>0.28106599999999998</v>
       </c>
     </row>
@@ -951,25 +973,25 @@
       <c r="A17">
         <v>0.5</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
         <v>4.3718199999999999E-2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>8.3238300000000001E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0.14925099999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.26130399999999998</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0.288464</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>0.28082200000000002</v>
       </c>
     </row>
@@ -977,25 +999,25 @@
       <c r="A18">
         <v>0.6</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>3.6786399999999997E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>7.0519399999999996E-2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>0.12832299999999999</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.235259</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0.26979300000000001</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>0.27302900000000002</v>
       </c>
     </row>
@@ -1003,25 +1025,25 @@
       <c r="A19">
         <v>0.7</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>3.1141100000000001E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5.9990799999999997E-2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>0.110387</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.20993899999999999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.248476</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>0.259822</v>
       </c>
     </row>
@@ -1029,25 +1051,25 @@
       <c r="A20">
         <v>0.8</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>2.6222499999999999E-2</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>5.0716600000000001E-2</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>9.4200099999999995E-2</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.18498200000000001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>0.22517899999999999</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>0.242453</v>
       </c>
     </row>
@@ -1055,25 +1077,25 @@
       <c r="A21">
         <v>0.9</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
         <v>2.1713300000000001E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>4.2153799999999998E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>7.9003900000000002E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>0.16003400000000001</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>0.200187</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>0.221667</v>
       </c>
     </row>
@@ -1081,30 +1103,30 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <v>1.74231E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>3.3971599999999998E-2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>6.4319299999999996E-2</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>0.13481899999999999</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0.173627</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>0.197932</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:C11">
@@ -1122,196 +1144,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3">
         <v>-1</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3">
         <v>-0.9</v>
       </c>
       <c r="B3" s="2">
         <v>3.6018099999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="C3" s="2">
+        <v>3.3674599999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.1206399999999999E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.6278699999999999E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.32903E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.1980200000000002E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
         <v>-0.8</v>
       </c>
       <c r="B4" s="2">
         <v>6.1659600000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="C4" s="2">
+        <v>5.7858899999999998E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.3816000000000003E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.5676399999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.3833799999999999E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.7291500000000006E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
         <v>-0.7</v>
       </c>
       <c r="B5" s="2">
         <v>9.1035900000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="C5" s="2">
+        <v>8.5720699999999997E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.0011299999999994E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.8422300000000005E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.6782000000000002E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.56203E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>-0.6</v>
       </c>
       <c r="B6" s="2">
         <v>0.12625400000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="C6" s="2">
+        <v>0.119295</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.11174199999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9.6282300000000001E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.33398E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.3558599999999999E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
         <v>-0.5</v>
       </c>
       <c r="B7" s="2">
         <v>0.16891100000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="C7" s="2">
+        <v>0.160192</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.15060899999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.13081799999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.4856099999999995E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.4487799999999999E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
         <v>-0.4</v>
       </c>
       <c r="B8" s="2">
         <v>0.22042500000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="C8" s="2">
+        <v>0.209925</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.198188</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.17369100000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.103142</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.9945999999999997E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
         <v>-0.3</v>
       </c>
       <c r="B9" s="2">
         <v>0.28171499999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="C9" s="2">
+        <v>0.26963500000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.25577800000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.226467</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.14063300000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.2682200000000002E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
         <v>-0.2</v>
       </c>
       <c r="B10" s="2">
         <v>0.35222599999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="C10" s="2">
+        <v>0.33919199999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.32350299999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.28966599999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.18986800000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.1079</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
         <v>-0.1</v>
       </c>
       <c r="B11" s="2">
         <v>0.428566</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="C11" s="2">
+        <v>0.41626600000000002</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.39940599999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.36137399999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.249443</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.16351299999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
         <v>0</v>
       </c>
       <c r="B12" s="2">
         <v>0.49059199999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="C12" s="2">
+        <v>0.49346800000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.47962900000000003</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.44017499999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.31240499999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.22278600000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.14008599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
         <v>0.1</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="C13" s="2">
+        <v>0.21210100000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.33635799999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.43667400000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.37848500000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.27950700000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.19236900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
         <v>0.2</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="C14" s="2">
+        <v>0.12765199999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.22409399999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.34403400000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.398038</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.32631199999999999</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.24118700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
         <v>0.3</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2">
+      <c r="C15" s="2">
+        <v>9.3142299999999997E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.169547</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.27845500000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.37915300000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.34288299999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.27446700000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
         <v>0.4</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="C16" s="2">
+        <v>7.3435100000000003E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.13610900000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.231599</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.347468</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.33707900000000002</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.28790300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="C17" s="2">
+        <v>5.9794E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.111999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.194715</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.31121599999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.31742900000000002</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.28486299999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
         <v>0.6</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="C18" s="2">
+        <v>4.8980099999999999E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.2364100000000005E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.162887</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.27215699999999998</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.28809499999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.26855699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
         <v>0.7</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="C19" s="2">
+        <v>3.9440700000000002E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7.4718099999999996E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.133107</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.22984199999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.25037199999999998</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.24050299999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
         <v>0.8</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="C20" s="2">
+        <v>3.0181199999999998E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.7365800000000002E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.102969</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.18241299999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.20332</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.20013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
         <v>0.9</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="C21" s="2">
+        <v>2.00568E-2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.8217399999999999E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6.9005800000000006E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.124817</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.14180100000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.142461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/sims/s32/gs-radiances.xlsx
+++ b/sims/s32/gs-radiances.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="0" windowWidth="17640" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7260" yWindow="0" windowWidth="21060" windowHeight="18100" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="m0" sheetId="1" r:id="rId1"/>
+    <sheet name="m1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="gs_rad_tau0" localSheetId="0">Sheet1!$A$2:$C$22</definedName>
+    <definedName name="gs_rad_tau0" localSheetId="0">m0!$A$2:$C$22</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1146,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
